--- a/data/CS1_2/case18/case18_2030.xlsx
+++ b/data/CS1_2/case18/case18_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_2\case18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272A0813-E741-493B-97EA-FFEA20CA346F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D92392-2FD4-44AF-B384-334695FE4D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -51312,8 +51312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764405B9-6B3C-4F8A-A775-FFC7ECA3AF01}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51348,17 +51348,17 @@
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <f>VLOOKUP($A2,'ES installed'!$A$2:$B$1048576,2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <f>B2*5</f>
-        <v>2.5</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2">
+        <f>B2*4</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
         <f>C2*0.5</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>0.95</v>
@@ -51377,17 +51377,17 @@
       <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <f>VLOOKUP($A3,'ES installed'!$A$2:$B$1048576,2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C5" si="0">B3*5</f>
-        <v>2.5</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C5" si="0">B3*4</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D5" si="1">C3*0.5</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
         <v>0.95</v>
@@ -51406,17 +51406,17 @@
       <c r="A4">
         <v>21</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <f>VLOOKUP($A4,'ES installed'!$A$2:$B$1048576,2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>0.95</v>
@@ -51435,17 +51435,17 @@
       <c r="A5">
         <v>23</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <f>VLOOKUP($A5,'ES installed'!$A$2:$B$1048576,2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>0.95</v>
@@ -51953,7 +51953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9826D321-9967-45A7-9995-7352E2ADFAE8}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
